--- a/WebRoot/download/配送单导入模板.xlsx
+++ b/WebRoot/download/配送单导入模板.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="配送单导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="内容格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>客户配送单号</t>
   </si>
@@ -83,6 +83,65 @@
     <t>配送仓库</t>
     <phoneticPr fontId="63" type="noConversion"/>
   </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，必须与系统维护货品型号一致</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，必须与货品型号和客户一致</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，必须与系统维护的简称一致</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，供应商简称必须与系统中维护的名称一致</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，必须与系统中维护的仓库名称一致</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>必填，清楚写明地域级别如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XX省，XX市，XX区，XX县</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,这样不容易造成一个地名有多个地域级别的情况，保证数据准确性。</t>
+    </r>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日期格式：
+YYYY/MM/DD
+</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +164,7 @@
     <numFmt numFmtId="188" formatCode=";;;"/>
     <numFmt numFmtId="189" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="87">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +605,173 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,8 +1080,94 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1080,8 +1390,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2603">
+  <cellStyleXfs count="2711">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -8254,8 +8642,324 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="60" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="43" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="59" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="61" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="60" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="43" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="59" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="60" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="43" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="59" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="64" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8280,8 +8984,11 @@
     <xf numFmtId="0" fontId="54" fillId="55" borderId="4" xfId="2527" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="2603" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2603">
+  <cellStyles count="2711">
     <cellStyle name=" 1" xfId="2"/>
     <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="3"/>
     <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 10" xfId="4"/>
@@ -8527,6 +9234,9 @@
     <cellStyle name="20% - 强调文字颜色 1 2 2 8" xfId="244"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 9" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2_一般运输（2015）" xfId="246"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 20" xfId="2604"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 21" xfId="2649"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 22" xfId="2684"/>
     <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="248"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="249"/>
@@ -8577,6 +9287,9 @@
     <cellStyle name="20% - 强调文字颜色 2 2 2 8" xfId="294"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 9" xfId="295"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2_一般运输（2015）" xfId="296"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 20" xfId="2605"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 21" xfId="2650"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 22" xfId="2683"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="297"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="298"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="299"/>
@@ -8627,6 +9340,9 @@
     <cellStyle name="20% - 强调文字颜色 3 2 2 8" xfId="344"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 9" xfId="345"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2_一般运输（2015）" xfId="346"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 20" xfId="2606"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 21" xfId="2651"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 22" xfId="2682"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="347"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="348"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="349"/>
@@ -8677,6 +9393,9 @@
     <cellStyle name="20% - 强调文字颜色 4 2 2 8" xfId="394"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 9" xfId="395"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2_一般运输（2015）" xfId="396"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 20" xfId="2607"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 21" xfId="2652"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 22" xfId="2679"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="397"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="398"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="399"/>
@@ -8727,6 +9446,9 @@
     <cellStyle name="20% - 强调文字颜色 5 2 2 8" xfId="444"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 9" xfId="445"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2_一般运输（2015）" xfId="446"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 20" xfId="2608"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 21" xfId="2653"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 22" xfId="2677"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="447"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="448"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="449"/>
@@ -8777,6 +9499,9 @@
     <cellStyle name="20% - 强调文字颜色 6 2 2 8" xfId="494"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 9" xfId="495"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2_一般运输（2015）" xfId="496"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 20" xfId="2609"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 21" xfId="2654"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 22" xfId="2675"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="497"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="498"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="499"/>
@@ -8827,6 +9552,9 @@
     <cellStyle name="40% - 强调文字颜色 1 2 2 8" xfId="544"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 9" xfId="545"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2_一般运输（2015）" xfId="546"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 20" xfId="2610"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 21" xfId="2655"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 22" xfId="2674"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="547"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="548"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="549"/>
@@ -8877,6 +9605,9 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 8" xfId="594"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 9" xfId="595"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2_一般运输（2015）" xfId="596"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 20" xfId="2611"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 21" xfId="2656"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 22" xfId="2673"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="597"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="598"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="599"/>
@@ -8927,6 +9658,9 @@
     <cellStyle name="40% - 强调文字颜色 3 2 2 8" xfId="644"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 9" xfId="645"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2_一般运输（2015）" xfId="646"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 20" xfId="2612"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 21" xfId="2657"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 22" xfId="2672"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="647"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="648"/>
     <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="649"/>
@@ -8977,6 +9711,9 @@
     <cellStyle name="40% - 强调文字颜色 4 2 2 8" xfId="694"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 9" xfId="695"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2_一般运输（2015）" xfId="696"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 20" xfId="2613"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 21" xfId="2658"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 22" xfId="2671"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="697"/>
     <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="698"/>
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="699"/>
@@ -9027,6 +9764,9 @@
     <cellStyle name="40% - 强调文字颜色 5 2 2 8" xfId="744"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 9" xfId="745"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2_一般运输（2015）" xfId="746"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 20" xfId="2614"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 21" xfId="2659"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 22" xfId="2670"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="747"/>
     <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="748"/>
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="749"/>
@@ -9077,6 +9817,9 @@
     <cellStyle name="40% - 强调文字颜色 6 2 2 8" xfId="794"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 9" xfId="795"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2_一般运输（2015）" xfId="796"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 20" xfId="2615"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 21" xfId="2660"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 22" xfId="2669"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="797"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="798"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="799"/>
@@ -9127,6 +9870,9 @@
     <cellStyle name="60% - 强调文字颜色 1 2 2 8" xfId="844"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2 9" xfId="845"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2_一般运输（2015）" xfId="846"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 20" xfId="2616"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 21" xfId="2661"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 22" xfId="2668"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="847"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="848"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="849"/>
@@ -9177,6 +9923,9 @@
     <cellStyle name="60% - 强调文字颜色 2 2 2 8" xfId="894"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2 9" xfId="895"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2_一般运输（2015）" xfId="896"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 20" xfId="2617"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 21" xfId="2662"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 22" xfId="2667"/>
     <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="897"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="898"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="899"/>
@@ -9227,6 +9976,9 @@
     <cellStyle name="60% - 强调文字颜色 3 2 2 8" xfId="944"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2 9" xfId="945"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2_一般运输（2015）" xfId="946"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 20" xfId="2618"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 21" xfId="2663"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 22" xfId="2648"/>
     <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="947"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="948"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="949"/>
@@ -9277,6 +10029,9 @@
     <cellStyle name="60% - 强调文字颜色 4 2 2 8" xfId="994"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2 9" xfId="995"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2_一般运输（2015）" xfId="996"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 20" xfId="2619"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 21" xfId="2664"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 22" xfId="2695"/>
     <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="997"/>
     <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="998"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="999"/>
@@ -9327,6 +10082,9 @@
     <cellStyle name="60% - 强调文字颜色 5 2 2 8" xfId="1044"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2 9" xfId="1045"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2_一般运输（2015）" xfId="1046"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 20" xfId="2620"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 21" xfId="2665"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 22" xfId="2696"/>
     <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="1047"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="1048"/>
     <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="1049"/>
@@ -9377,6 +10135,9 @@
     <cellStyle name="60% - 强调文字颜色 6 2 2 8" xfId="1094"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2 9" xfId="1095"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2_一般运输（2015）" xfId="1096"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 20" xfId="2621"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 21" xfId="2666"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 22" xfId="2697"/>
     <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="1097"/>
     <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="1098"/>
     <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="1099"/>
@@ -9544,6 +10305,7 @@
     <cellStyle name="标题 1 2 2 7" xfId="1262"/>
     <cellStyle name="标题 1 2 2 8" xfId="1263"/>
     <cellStyle name="标题 1 2 2 9" xfId="1264"/>
+    <cellStyle name="标题 1 2 20" xfId="2622"/>
     <cellStyle name="标题 1 2 3" xfId="1265"/>
     <cellStyle name="标题 1 2 4" xfId="1266"/>
     <cellStyle name="标题 1 2 5" xfId="1267"/>
@@ -9600,6 +10362,7 @@
     <cellStyle name="标题 2 2 2 7" xfId="1315"/>
     <cellStyle name="标题 2 2 2 8" xfId="1316"/>
     <cellStyle name="标题 2 2 2 9" xfId="1317"/>
+    <cellStyle name="标题 2 2 20" xfId="2623"/>
     <cellStyle name="标题 2 2 3" xfId="1318"/>
     <cellStyle name="标题 2 2 4" xfId="1319"/>
     <cellStyle name="标题 2 2 5" xfId="1320"/>
@@ -9649,6 +10412,7 @@
     <cellStyle name="标题 3 2 2 7" xfId="1361"/>
     <cellStyle name="标题 3 2 2 8" xfId="1362"/>
     <cellStyle name="标题 3 2 2 9" xfId="1363"/>
+    <cellStyle name="标题 3 2 20" xfId="2624"/>
     <cellStyle name="标题 3 2 3" xfId="1364"/>
     <cellStyle name="标题 3 2 4" xfId="1365"/>
     <cellStyle name="标题 3 2 5" xfId="1366"/>
@@ -9695,6 +10459,7 @@
     <cellStyle name="标题 4 2 2 7" xfId="1407"/>
     <cellStyle name="标题 4 2 2 8" xfId="1408"/>
     <cellStyle name="标题 4 2 2 9" xfId="1409"/>
+    <cellStyle name="标题 4 2 20" xfId="2625"/>
     <cellStyle name="标题 4 2 3" xfId="1410"/>
     <cellStyle name="标题 4 2 4" xfId="1411"/>
     <cellStyle name="标题 4 2 5" xfId="1412"/>
@@ -9735,6 +10500,7 @@
     <cellStyle name="标题 5 2 7" xfId="1447"/>
     <cellStyle name="标题 5 2 8" xfId="1448"/>
     <cellStyle name="标题 5 2 9" xfId="1449"/>
+    <cellStyle name="标题 5 20" xfId="2626"/>
     <cellStyle name="标题 5 3" xfId="1450"/>
     <cellStyle name="标题 5 4" xfId="1451"/>
     <cellStyle name="标题 5 5" xfId="1452"/>
@@ -9781,6 +10547,9 @@
     <cellStyle name="差 2 2 8" xfId="1493"/>
     <cellStyle name="差 2 2 9" xfId="1494"/>
     <cellStyle name="差 2 2_一般运输（2015）" xfId="1495"/>
+    <cellStyle name="差 2 20" xfId="2627"/>
+    <cellStyle name="差 2 21" xfId="2676"/>
+    <cellStyle name="差 2 22" xfId="2698"/>
     <cellStyle name="差 2 3" xfId="1496"/>
     <cellStyle name="差 2 4" xfId="1497"/>
     <cellStyle name="差 2 5" xfId="1498"/>
@@ -9862,6 +10631,7 @@
     <cellStyle name="常规 2" xfId="1573"/>
     <cellStyle name="常规 2 10" xfId="1574"/>
     <cellStyle name="常规 2 11" xfId="1575"/>
+    <cellStyle name="常规 2 12" xfId="2628"/>
     <cellStyle name="常规 2 2" xfId="1576"/>
     <cellStyle name="常规 2 2 2" xfId="1577"/>
     <cellStyle name="常规 2 2 2 2 5 2 3" xfId="1578"/>
@@ -9911,6 +10681,9 @@
     <cellStyle name="常规 3 6" xfId="1617"/>
     <cellStyle name="常规 3_2013年离职情况" xfId="1618"/>
     <cellStyle name="常规 30" xfId="2600"/>
+    <cellStyle name="常规 31" xfId="2603"/>
+    <cellStyle name="常规 32" xfId="2647"/>
+    <cellStyle name="常规 33" xfId="2694"/>
     <cellStyle name="常规 4" xfId="1619"/>
     <cellStyle name="常规 4 2" xfId="1620"/>
     <cellStyle name="常规 4 2 2" xfId="1621"/>
@@ -10023,6 +10796,9 @@
     <cellStyle name="好 2 2 8" xfId="1728"/>
     <cellStyle name="好 2 2 9" xfId="1729"/>
     <cellStyle name="好 2 2_一般运输（2015）" xfId="1730"/>
+    <cellStyle name="好 2 20" xfId="2629"/>
+    <cellStyle name="好 2 21" xfId="2678"/>
+    <cellStyle name="好 2 22" xfId="2699"/>
     <cellStyle name="好 2 3" xfId="1731"/>
     <cellStyle name="好 2 4" xfId="1732"/>
     <cellStyle name="好 2 5" xfId="1733"/>
@@ -10098,6 +10874,7 @@
     <cellStyle name="汇总 2 2 7" xfId="1803"/>
     <cellStyle name="汇总 2 2 8" xfId="1804"/>
     <cellStyle name="汇总 2 2 9" xfId="1805"/>
+    <cellStyle name="汇总 2 20" xfId="2630"/>
     <cellStyle name="汇总 2 3" xfId="1806"/>
     <cellStyle name="汇总 2 4" xfId="1807"/>
     <cellStyle name="汇总 2 5" xfId="1808"/>
@@ -10149,6 +10926,9 @@
     <cellStyle name="计算 2 2 8" xfId="1854"/>
     <cellStyle name="计算 2 2 9" xfId="1855"/>
     <cellStyle name="计算 2 2_一般运输（2015）" xfId="1856"/>
+    <cellStyle name="计算 2 20" xfId="2631"/>
+    <cellStyle name="计算 2 21" xfId="2680"/>
+    <cellStyle name="计算 2 22" xfId="2700"/>
     <cellStyle name="计算 2 3" xfId="1857"/>
     <cellStyle name="计算 2 4" xfId="1858"/>
     <cellStyle name="计算 2 5" xfId="1859"/>
@@ -10200,6 +10980,9 @@
     <cellStyle name="检查单元格 2 2 8" xfId="1905"/>
     <cellStyle name="检查单元格 2 2 9" xfId="1906"/>
     <cellStyle name="检查单元格 2 2_一般运输（2015）" xfId="1907"/>
+    <cellStyle name="检查单元格 2 20" xfId="2632"/>
+    <cellStyle name="检查单元格 2 21" xfId="2681"/>
+    <cellStyle name="检查单元格 2 22" xfId="2701"/>
     <cellStyle name="检查单元格 2 3" xfId="1908"/>
     <cellStyle name="检查单元格 2 4" xfId="1909"/>
     <cellStyle name="检查单元格 2 5" xfId="1910"/>
@@ -10249,6 +11032,7 @@
     <cellStyle name="解释性文本 2 2 7" xfId="1954"/>
     <cellStyle name="解释性文本 2 2 8" xfId="1955"/>
     <cellStyle name="解释性文本 2 2 9" xfId="1956"/>
+    <cellStyle name="解释性文本 2 20" xfId="2633"/>
     <cellStyle name="解释性文本 2 3" xfId="1957"/>
     <cellStyle name="解释性文本 2 4" xfId="1958"/>
     <cellStyle name="解释性文本 2 5" xfId="1959"/>
@@ -10294,6 +11078,7 @@
     <cellStyle name="警告文本 2 2 7" xfId="1999"/>
     <cellStyle name="警告文本 2 2 8" xfId="2000"/>
     <cellStyle name="警告文本 2 2 9" xfId="2001"/>
+    <cellStyle name="警告文本 2 20" xfId="2634"/>
     <cellStyle name="警告文本 2 3" xfId="2002"/>
     <cellStyle name="警告文本 2 4" xfId="2003"/>
     <cellStyle name="警告文本 2 5" xfId="2004"/>
@@ -10340,6 +11125,7 @@
     <cellStyle name="链接单元格 2 2 7" xfId="2045"/>
     <cellStyle name="链接单元格 2 2 8" xfId="2046"/>
     <cellStyle name="链接单元格 2 2 9" xfId="2047"/>
+    <cellStyle name="链接单元格 2 20" xfId="2635"/>
     <cellStyle name="链接单元格 2 3" xfId="2048"/>
     <cellStyle name="链接单元格 2 4" xfId="2049"/>
     <cellStyle name="链接单元格 2 5" xfId="2050"/>
@@ -10389,6 +11175,9 @@
     <cellStyle name="强调文字颜色 1 2 2 8" xfId="2094"/>
     <cellStyle name="强调文字颜色 1 2 2 9" xfId="2095"/>
     <cellStyle name="强调文字颜色 1 2 2_一般运输（2015）" xfId="2096"/>
+    <cellStyle name="强调文字颜色 1 2 20" xfId="2636"/>
+    <cellStyle name="强调文字颜色 1 2 21" xfId="2685"/>
+    <cellStyle name="强调文字颜色 1 2 22" xfId="2702"/>
     <cellStyle name="强调文字颜色 1 2 3" xfId="2097"/>
     <cellStyle name="强调文字颜色 1 2 4" xfId="2098"/>
     <cellStyle name="强调文字颜色 1 2 5" xfId="2099"/>
@@ -10439,6 +11228,9 @@
     <cellStyle name="强调文字颜色 2 2 2 8" xfId="2144"/>
     <cellStyle name="强调文字颜色 2 2 2 9" xfId="2145"/>
     <cellStyle name="强调文字颜色 2 2 2_一般运输（2015）" xfId="2146"/>
+    <cellStyle name="强调文字颜色 2 2 20" xfId="2637"/>
+    <cellStyle name="强调文字颜色 2 2 21" xfId="2686"/>
+    <cellStyle name="强调文字颜色 2 2 22" xfId="2703"/>
     <cellStyle name="强调文字颜色 2 2 3" xfId="2147"/>
     <cellStyle name="强调文字颜色 2 2 4" xfId="2148"/>
     <cellStyle name="强调文字颜色 2 2 5" xfId="2149"/>
@@ -10489,6 +11281,9 @@
     <cellStyle name="强调文字颜色 3 2 2 8" xfId="2194"/>
     <cellStyle name="强调文字颜色 3 2 2 9" xfId="2195"/>
     <cellStyle name="强调文字颜色 3 2 2_一般运输（2015）" xfId="2196"/>
+    <cellStyle name="强调文字颜色 3 2 20" xfId="2638"/>
+    <cellStyle name="强调文字颜色 3 2 21" xfId="2687"/>
+    <cellStyle name="强调文字颜色 3 2 22" xfId="2704"/>
     <cellStyle name="强调文字颜色 3 2 3" xfId="2197"/>
     <cellStyle name="强调文字颜色 3 2 4" xfId="2198"/>
     <cellStyle name="强调文字颜色 3 2 5" xfId="2199"/>
@@ -10539,6 +11334,9 @@
     <cellStyle name="强调文字颜色 4 2 2 8" xfId="2244"/>
     <cellStyle name="强调文字颜色 4 2 2 9" xfId="2245"/>
     <cellStyle name="强调文字颜色 4 2 2_一般运输（2015）" xfId="2246"/>
+    <cellStyle name="强调文字颜色 4 2 20" xfId="2639"/>
+    <cellStyle name="强调文字颜色 4 2 21" xfId="2688"/>
+    <cellStyle name="强调文字颜色 4 2 22" xfId="2705"/>
     <cellStyle name="强调文字颜色 4 2 3" xfId="2247"/>
     <cellStyle name="强调文字颜色 4 2 4" xfId="2248"/>
     <cellStyle name="强调文字颜色 4 2 5" xfId="2249"/>
@@ -10589,6 +11387,9 @@
     <cellStyle name="强调文字颜色 5 2 2 8" xfId="2294"/>
     <cellStyle name="强调文字颜色 5 2 2 9" xfId="2295"/>
     <cellStyle name="强调文字颜色 5 2 2_一般运输（2015）" xfId="2296"/>
+    <cellStyle name="强调文字颜色 5 2 20" xfId="2640"/>
+    <cellStyle name="强调文字颜色 5 2 21" xfId="2689"/>
+    <cellStyle name="强调文字颜色 5 2 22" xfId="2706"/>
     <cellStyle name="强调文字颜色 5 2 3" xfId="2297"/>
     <cellStyle name="强调文字颜色 5 2 4" xfId="2298"/>
     <cellStyle name="强调文字颜色 5 2 5" xfId="2299"/>
@@ -10639,6 +11440,9 @@
     <cellStyle name="强调文字颜色 6 2 2 8" xfId="2344"/>
     <cellStyle name="强调文字颜色 6 2 2 9" xfId="2345"/>
     <cellStyle name="强调文字颜色 6 2 2_一般运输（2015）" xfId="2346"/>
+    <cellStyle name="强调文字颜色 6 2 20" xfId="2641"/>
+    <cellStyle name="强调文字颜色 6 2 21" xfId="2690"/>
+    <cellStyle name="强调文字颜色 6 2 22" xfId="2707"/>
     <cellStyle name="强调文字颜色 6 2 3" xfId="2347"/>
     <cellStyle name="强调文字颜色 6 2 4" xfId="2348"/>
     <cellStyle name="强调文字颜色 6 2 5" xfId="2349"/>
@@ -10689,6 +11493,9 @@
     <cellStyle name="适中 2 2 8" xfId="2394"/>
     <cellStyle name="适中 2 2 9" xfId="2395"/>
     <cellStyle name="适中 2 2_一般运输（2015）" xfId="2396"/>
+    <cellStyle name="适中 2 20" xfId="2642"/>
+    <cellStyle name="适中 2 21" xfId="2691"/>
+    <cellStyle name="适中 2 22" xfId="2708"/>
     <cellStyle name="适中 2 3" xfId="2397"/>
     <cellStyle name="适中 2 4" xfId="2398"/>
     <cellStyle name="适中 2 5" xfId="2399"/>
@@ -10741,6 +11548,9 @@
     <cellStyle name="输出 2 2 8" xfId="2446"/>
     <cellStyle name="输出 2 2 9" xfId="2447"/>
     <cellStyle name="输出 2 2_一般运输（2015）" xfId="2448"/>
+    <cellStyle name="输出 2 20" xfId="2643"/>
+    <cellStyle name="输出 2 21" xfId="2692"/>
+    <cellStyle name="输出 2 22" xfId="2709"/>
     <cellStyle name="输出 2 3" xfId="2449"/>
     <cellStyle name="输出 2 4" xfId="2450"/>
     <cellStyle name="输出 2 5" xfId="2451"/>
@@ -10795,6 +11605,9 @@
     <cellStyle name="输入 2 2 8" xfId="2500"/>
     <cellStyle name="输入 2 2 9" xfId="2501"/>
     <cellStyle name="输入 2 2_一般运输（2015）" xfId="2502"/>
+    <cellStyle name="输入 2 20" xfId="2644"/>
+    <cellStyle name="输入 2 21" xfId="2693"/>
+    <cellStyle name="输入 2 22" xfId="2710"/>
     <cellStyle name="输入 2 3" xfId="2503"/>
     <cellStyle name="输入 2 4" xfId="2504"/>
     <cellStyle name="输入 2 5" xfId="2505"/>
@@ -10854,6 +11667,7 @@
     <cellStyle name="注释 2 2 10" xfId="2559"/>
     <cellStyle name="注释 2 2 11" xfId="2560"/>
     <cellStyle name="注释 2 2 12" xfId="2561"/>
+    <cellStyle name="注释 2 2 13" xfId="2646"/>
     <cellStyle name="注释 2 2 2" xfId="2562"/>
     <cellStyle name="注释 2 2 3" xfId="2563"/>
     <cellStyle name="注释 2 2 4" xfId="2564"/>
@@ -10863,6 +11677,7 @@
     <cellStyle name="注释 2 2 8" xfId="2568"/>
     <cellStyle name="注释 2 2 9" xfId="2569"/>
     <cellStyle name="注释 2 2_一般运输（2015）" xfId="2570"/>
+    <cellStyle name="注释 2 20" xfId="2645"/>
     <cellStyle name="注释 2 3" xfId="2571"/>
     <cellStyle name="注释 2 4" xfId="2572"/>
     <cellStyle name="注释 2 5" xfId="2573"/>
@@ -10887,7 +11702,7 @@
     <cellStyle name="醉敠g" xfId="2592"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -11246,8 +12061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11335,12 +12150,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="16.875" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="135.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="63" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WebRoot/download/配送单导入模板.xlsx
+++ b/WebRoot/download/配送单导入模板.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="配送单导入模板" sheetId="1" r:id="rId1"/>
     <sheet name="内容格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>客户配送单号</t>
   </si>
@@ -142,6 +143,10 @@
 </t>
     <phoneticPr fontId="63" type="noConversion"/>
   </si>
+  <si>
+    <t>单品ID</t>
+    <phoneticPr fontId="63" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -175,6 +180,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9191,20 +9197,20 @@
     <cellStyle name="_汇总" xfId="201"/>
     <cellStyle name="_急需设备名单" xfId="202"/>
     <cellStyle name="_泰山销售2013-6 (1)" xfId="203"/>
-    <cellStyle name="0,0 _x000a_NA _x000a_" xfId="204"/>
-    <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="205"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="206"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="207"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 2" xfId="208"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 3" xfId="209"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2_一般运输（2014）" xfId="210"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 3" xfId="211"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 4" xfId="212"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 5" xfId="213"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 6" xfId="214"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 7" xfId="215"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a__2012部门人员离职情况" xfId="216"/>
-    <cellStyle name="0,0_x005f_x000d__x000a_NA_x005f_x000d__x000a_" xfId="217"/>
+    <cellStyle name="0,0 &#10;NA &#10;" xfId="204"/>
+    <cellStyle name="0,0&#10;&#10;NA&#10;&#10;" xfId="205"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;" xfId="206"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2" xfId="207"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 2" xfId="208"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 3" xfId="209"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2_一般运输（2014）" xfId="210"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 3" xfId="211"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 4" xfId="212"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 5" xfId="213"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 6" xfId="214"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 7" xfId="215"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;_2012部门人员离职情况" xfId="216"/>
+    <cellStyle name="0,0_x005f_x000d_&#10;NA_x005f_x000d_&#10;" xfId="217"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="219"/>
     <cellStyle name="20% - 强调文字颜色 1 11" xfId="220"/>
     <cellStyle name="20% - 强调文字颜色 1 12" xfId="221"/>
@@ -10219,12 +10225,12 @@
     <cellStyle name="Reset  - Style7" xfId="1175"/>
     <cellStyle name="RowLevel_0" xfId="1176"/>
     <cellStyle name="s" xfId="1177"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double" xfId="1178"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double 2" xfId="1179"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double 3" xfId="1180"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double 4" xfId="1181"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double 5" xfId="1182"/>
-    <cellStyle name="s]_x000d__x000a_;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d__x000a_run=_x000d__x000a_Beep=yes_x000d__x000a_NullPort=None_x000d__x000a_BorderWidth=3_x000d__x000a_CursorBlinkRate=780_x000d__x000a_Double_Sheet1" xfId="1183"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double" xfId="1178"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double 2" xfId="1179"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double 3" xfId="1180"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double 4" xfId="1181"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double 5" xfId="1182"/>
+    <cellStyle name="s]_x000d_&#10;;load=C:\WINDOWS\VERINST.EXE APMAPP.EXE _x000d_&#10;run=_x000d_&#10;Beep=yes_x000d_&#10;NullPort=None_x000d_&#10;BorderWidth=3_x000d_&#10;CursorBlinkRate=780_x000d_&#10;Double_Sheet1" xfId="1183"/>
     <cellStyle name="SAPBEXaggData" xfId="1184"/>
     <cellStyle name="SAPBEXaggDataEmph" xfId="1185"/>
     <cellStyle name="SAPBEXaggItem" xfId="1186"/>
@@ -11703,74 +11709,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -11782,7 +11720,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -12059,10 +11997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="A1:R2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12080,9 +12018,10 @@
     <col min="15" max="15" width="13.625" customWidth="1"/>
     <col min="16" max="16" width="17.125" customWidth="1"/>
     <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -12137,8 +12076,11 @@
       <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="L9" s="1"/>
     </row>
   </sheetData>
@@ -12152,7 +12094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
